--- a/biology/Zoologie/Charaxes_antonius/Charaxes_antonius.xlsx
+++ b/biology/Zoologie/Charaxes_antonius/Charaxes_antonius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases antonius est une espèce de papillons de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Charaxes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Charaxes antonius a été initialement décrite par Georg Semper en 1878[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Charaxes antonius a été initialement décrite par Georg Semper en 1878.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes antonius est un grand papillon au dessus marron roux avec aux ailes antérieures une partie basale plus orange cuivré et une partie marginale plus marron cuivré et aux ailes postérieures presque totalement orange cuivré une ligne submarginale de points marron et deux queues à chacune.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 avril 2021)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 avril 2021) :
 sous-espèce Charaxes antonius antonius Semper, 1878
 sous-espèce Charaxes antonius dinagatensis Tsukada, 1991
 sous-espèce Charaxes antonius osadai Hanafusa, 1985</t>
@@ -603,12 +621,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent aux Philippines.
+</t>
         </is>
       </c>
     </row>
@@ -638,10 +659,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est uniquement présent aux Philippines[1].
-Biotope
-Protection
-Pas de protection : des spécimens sont vendus sur internet.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : des spécimens sont vendus sur internet.
 </t>
         </is>
       </c>
